--- a/web/data/奖项设置.xlsx
+++ b/web/data/奖项设置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17205"/>
+    <workbookView windowWidth="23325" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>奖项数量</t>
   </si>
   <si>
-    <t>规则</t>
+    <t>奖项等级</t>
   </si>
   <si>
     <t>图片路径</t>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
@@ -1254,7 +1254,7 @@
     <col min="4" max="4" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>7</v>
